--- a/lb3/лаба3.xlsx
+++ b/lb3/лаба3.xlsx
@@ -392,7 +392,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -447,11 +447,11 @@
       </c>
       <c r="C3" s="2">
         <f>(G3+C5)/2</f>
-        <v>1.3986291947472629</v>
+        <v>1.7690291947472629</v>
       </c>
       <c r="D3" s="2">
         <f>(C4*C11)/(C11+C9)</f>
-        <v>1.4285714285714286</v>
+        <v>1.8421052631578947</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
@@ -459,7 +459,7 @@
       </c>
       <c r="G3" s="2">
         <f>((-1+(1+2*C6*C4*C8)^(1/2))/(C6*C8))+C5</f>
-        <v>1.5746583894945259</v>
+        <v>1.9450583894945259</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
@@ -503,7 +503,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>1.2225999999999999</v>
+        <v>1.593</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -595,7 +595,7 @@
       </c>
       <c r="C10" s="2">
         <f>(C3*C9)/(C4-C3)</f>
-        <v>116508.06904198608</v>
+        <v>164256.74833130074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -612,7 +612,7 @@
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2">
-        <v>120000</v>
+        <v>175000</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -632,7 +632,7 @@
       </c>
       <c r="C12" s="2">
         <f>(C9*C11)/(C9+C11)</f>
-        <v>85714.28571428571</v>
+        <v>110526.31578947368</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
